--- a/regionseng/8/standard of living/incomes.xlsx
+++ b/regionseng/8/standard of living/incomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -150,11 +150,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +247,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,7 +311,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -355,6 +362,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -369,16 +388,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -692,35 +715,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="27"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="10">
         <v>2011</v>
@@ -755,8 +782,14 @@
       <c r="L2" s="11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -790,11 +823,17 @@
       <c r="K3" s="7">
         <v>111.32684024962516</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="7">
         <v>124.7157600685363</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="15">
+        <v>143.95201164547433</v>
+      </c>
+      <c r="N3" s="24">
+        <v>168.34490677632519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -828,11 +867,17 @@
       <c r="K4" s="7">
         <v>103.68271513314043</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="7">
         <v>117.30888504870286</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="15">
+        <v>137.44471427077519</v>
+      </c>
+      <c r="N4" s="24">
+        <v>158.93926245443089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -866,11 +911,17 @@
       <c r="K5" s="8">
         <v>48.702506263290395</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="8">
         <v>49.490651947443645</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="16">
+        <v>64.496308571039819</v>
+      </c>
+      <c r="N5" s="25">
+        <v>71.461127620801278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -904,11 +955,17 @@
       <c r="K6" s="8">
         <v>10.682039349772134</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="8">
         <v>14.111247376912438</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="16">
+        <v>14.983901544647216</v>
+      </c>
+      <c r="N6" s="25">
+        <v>22.553914952407837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
@@ -942,11 +999,17 @@
       <c r="K7" s="8">
         <v>8.1075376597204833</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="8">
         <v>13.959126491890588</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="16">
+        <v>11.753667345497131</v>
+      </c>
+      <c r="N7" s="25">
+        <v>12.783787164315541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -980,11 +1043,17 @@
       <c r="K8" s="8">
         <v>0.68476301447550458</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="8">
         <v>0.74551236801147469</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="16">
+        <v>0.38091330362955733</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0.96534547424316419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
@@ -1018,11 +1087,17 @@
       <c r="K9" s="8">
         <v>23.986204884198507</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="8">
         <v>25.663436413561502</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="16">
+        <v>31.178797984670002</v>
+      </c>
+      <c r="N9" s="25">
+        <v>38.76604748592122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
@@ -1056,11 +1131,17 @@
       <c r="K10" s="8">
         <v>4.4072502067057284</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="8">
         <v>3.6702007699025474</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="16">
+        <v>5.2223342176310217</v>
+      </c>
+      <c r="N10" s="25">
+        <v>4.6410338815816239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
@@ -1094,11 +1175,17 @@
       <c r="K11" s="8">
         <v>7.1124137549776982</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="8">
         <v>9.6687096809806725</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="16">
+        <v>9.4287913036604394</v>
+      </c>
+      <c r="N11" s="25">
+        <v>7.7680058751602186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
@@ -1132,11 +1219,17 @@
       <c r="K12" s="7">
         <v>7.6441251164847053</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="7">
         <v>7.4068750198334481</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="15">
+        <v>6.5072973746991165</v>
+      </c>
+      <c r="N12" s="24">
+        <v>9.4056443218943127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1170,11 +1263,17 @@
       <c r="K13" s="7">
         <v>5.7866904328816728</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="7">
         <v>8.3779018626861586</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="15">
+        <v>7.6172225704701741</v>
+      </c>
+      <c r="N13" s="24">
+        <v>5.4955402203750614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -1208,11 +1307,17 @@
       <c r="K14" s="8">
         <v>0.15767158508300783</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="8">
         <v>0.1761831843058268</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="16">
+        <v>0.46710085042317706</v>
+      </c>
+      <c r="N14" s="25">
+        <v>3.9182490030924479E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -1246,11 +1351,17 @@
       <c r="K15" s="8">
         <v>5.6290188477986653</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="8">
         <v>8.2017186783803311</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="16">
+        <v>7.1501217200469958</v>
+      </c>
+      <c r="N15" s="25">
+        <v>5.456357730344136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
@@ -1284,11 +1395,17 @@
       <c r="K16" s="7">
         <v>109.46940556602213</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="7">
         <v>125.68678691138902</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="15">
+        <v>145.06193684124537</v>
+      </c>
+      <c r="N16" s="24">
+        <v>164.43480267480595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
@@ -1322,11 +1439,17 @@
       <c r="K17" s="9">
         <v>117.11353068250686</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="9">
         <v>133.09366193122247</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75">
+      <c r="M17" s="17">
+        <v>151.56923421594453</v>
+      </c>
+      <c r="N17" s="26">
+        <v>173.84044699670022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1336,7 +1459,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:14" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1346,23 +1469,25 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="10">
         <v>2011</v>
@@ -1397,8 +1522,14 @@
       <c r="L21" s="11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="M21" s="11">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
@@ -1432,11 +1563,17 @@
       <c r="K22" s="7">
         <v>965.71620874300731</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="7">
         <v>1064.6225490384861</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="M22" s="18">
+        <v>1247.8649518907255</v>
+      </c>
+      <c r="N22" s="28">
+        <v>1422.716985001357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
@@ -1470,11 +1607,17 @@
       <c r="K23" s="7">
         <v>899.40645352049103</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="7">
         <v>1001.3945643820871</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="M23" s="15">
+        <v>1191.4556788795499</v>
+      </c>
+      <c r="N23" s="24">
+        <v>1343.2279752778834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>0</v>
       </c>
@@ -1508,11 +1651,17 @@
       <c r="K24" s="8">
         <v>422.47493595800432</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="8">
         <v>422.47157857923753</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="16">
+        <v>559.09384017739978</v>
+      </c>
+      <c r="N24" s="25">
+        <v>603.93249775324716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>1</v>
       </c>
@@ -1546,11 +1695,17 @@
       <c r="K25" s="8">
         <v>92.662456954447677</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="8">
         <v>120.45913158261111</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="16">
+        <v>129.8897137067859</v>
+      </c>
+      <c r="N25" s="25">
+        <v>190.60771421912307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1584,11 +1739,17 @@
       <c r="K26" s="8">
         <v>70.329675336427059</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="8">
         <v>119.16056815899125</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="16">
+        <v>101.88804844735552</v>
+      </c>
+      <c r="N26" s="25">
+        <v>108.03838072439889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>15</v>
       </c>
@@ -1622,11 +1783,17 @@
       <c r="K27" s="8">
         <v>5.9400477076680867</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="8">
         <v>6.3639854107927514</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="16">
+        <v>3.3019917948689446</v>
+      </c>
+      <c r="N27" s="25">
+        <v>8.1583305898571243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>3</v>
       </c>
@@ -1660,11 +1827,17 @@
       <c r="K28" s="8">
         <v>208.07081913904562</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="8">
         <v>219.07313940658733</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="16">
+        <v>270.27707916281889</v>
+      </c>
+      <c r="N28" s="25">
+        <v>327.61973769048785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>4</v>
       </c>
@@ -1698,11 +1871,17 @@
       <c r="K29" s="8">
         <v>38.231148490860193</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="8">
         <v>31.330270504621094</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="16">
+        <v>45.270418681546126</v>
+      </c>
+      <c r="N29" s="25">
+        <v>39.222319568396557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>5</v>
       </c>
@@ -1736,11 +1915,17 @@
       <c r="K30" s="8">
         <v>61.697369934038036</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="8">
         <v>82.535890739246</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="16">
+        <v>81.734586908774418</v>
+      </c>
+      <c r="N30" s="25">
+        <v>65.648994732372856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
@@ -1774,11 +1959,17 @@
       <c r="K31" s="7">
         <v>66.309755222516173</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="7">
         <v>63.227984656399165</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="15">
+        <v>56.409273011176097</v>
+      </c>
+      <c r="N31" s="24">
+        <v>79.489009723473842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
@@ -1812,11 +2003,17 @@
       <c r="K32" s="7">
         <v>50.197245637093665</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="7">
         <v>71.517049904083535</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="15">
+        <v>66.030790176453564</v>
+      </c>
+      <c r="N32" s="24">
+        <v>46.443926121709382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -1850,11 +2047,17 @@
       <c r="K33" s="8">
         <v>1.3677384989229986</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="8">
         <v>1.5039686297089501</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="16">
+        <v>4.0491186860031627</v>
+      </c>
+      <c r="N33" s="25">
+        <v>0.33113917818559313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -1888,11 +2091,17 @@
       <c r="K34" s="8">
         <v>48.829507138170662</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="8">
         <v>70.013081274374571</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="16">
+        <v>61.981671490450402</v>
+      </c>
+      <c r="N34" s="25">
+        <v>46.112786943523794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="12" t="s">
         <v>12</v>
       </c>
@@ -1926,11 +2135,17 @@
       <c r="K35" s="7">
         <v>949.60369915758463</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="7">
         <v>1072.9116142861706</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="15">
+        <v>1257.4864690560034</v>
+      </c>
+      <c r="N35" s="24">
+        <v>1389.6719013995926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="13" t="s">
         <v>13</v>
       </c>
@@ -1964,11 +2179,17 @@
       <c r="K36" s="9">
         <v>1015.913454380101</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="9">
         <v>1136.1395989425698</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75">
+      <c r="M36" s="17">
+        <v>1313.8957420671791</v>
+      </c>
+      <c r="N36" s="26">
+        <v>1469.1609111230671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1978,7 +2199,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75">
+    <row r="38" spans="1:14" ht="15.75">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1988,23 +2209,25 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="10">
         <v>2011</v>
@@ -2039,8 +2262,14 @@
       <c r="L40" s="11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="11">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
@@ -2074,11 +2303,17 @@
       <c r="K41" s="7">
         <v>256.37109396491343</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="7">
         <v>285.16432197139949</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="15">
+        <v>331.30726464290331</v>
+      </c>
+      <c r="N41" s="24">
+        <v>383.12581313003187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>9</v>
       </c>
@@ -2112,11 +2347,17 @@
       <c r="K42" s="7">
         <v>238.76767762682647</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="7">
         <v>268.22839910329549</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="15">
+        <v>316.33064244231127</v>
+      </c>
+      <c r="N42" s="24">
+        <v>361.7200860555231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
@@ -2150,11 +2391,17 @@
       <c r="K43" s="8">
         <v>112.15547644715308</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="8">
         <v>113.16106479854386</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="16">
+        <v>148.43902025392526</v>
+      </c>
+      <c r="N43" s="25">
+        <v>162.63398252544459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>1</v>
       </c>
@@ -2188,11 +2435,17 @@
       <c r="K44" s="8">
         <v>24.599333886928989</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="8">
         <v>32.265563615990168</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="16">
+        <v>34.48562738158661</v>
+      </c>
+      <c r="N44" s="25">
+        <v>51.32906703787512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>2</v>
       </c>
@@ -2226,11 +2479,17 @@
       <c r="K45" s="8">
         <v>18.670594571117118</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="8">
         <v>31.917737094216928</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="16">
+        <v>27.051205003995477</v>
+      </c>
+      <c r="N45" s="25">
+        <v>29.093834473514619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>15</v>
       </c>
@@ -2264,11 +2523,17 @@
       <c r="K46" s="8">
         <v>1.5769193011690461</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="8">
         <v>1.7046244101664134</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="16">
+        <v>0.87667649273568116</v>
+      </c>
+      <c r="N46" s="25">
+        <v>2.196970355997852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>3</v>
       </c>
@@ -2302,11 +2567,17 @@
       <c r="K47" s="8">
         <v>55.237080046823877</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="8">
         <v>58.679804703973986</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="16">
+        <v>71.758373898899535</v>
+      </c>
+      <c r="N47" s="25">
+        <v>88.22526175154654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>4</v>
       </c>
@@ -2340,11 +2611,17 @@
       <c r="K48" s="8">
         <v>10.149318478245794</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="8">
         <v>8.3919651652125911</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="16">
+        <v>12.019264231996344</v>
+      </c>
+      <c r="N48" s="25">
+        <v>10.562243394791238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>5</v>
       </c>
@@ -2378,11 +2655,17 @@
       <c r="K49" s="8">
         <v>16.378954895388482</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="8">
         <v>22.107639315191467</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="16">
+        <v>21.700475179172287</v>
+      </c>
+      <c r="N49" s="25">
+        <v>17.678726516353169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>10</v>
       </c>
@@ -2416,11 +2699,17 @@
       <c r="K50" s="7">
         <v>17.603416338087015</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="7">
         <v>16.935922868104043</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="15">
+        <v>14.976622200592155</v>
+      </c>
+      <c r="N50" s="24">
+        <v>21.405727074508686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>11</v>
       </c>
@@ -2454,11 +2743,17 @@
       <c r="K51" s="7">
         <v>13.325988174888202</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="7">
         <v>19.156189265117163</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="15">
+        <v>17.53112822218764</v>
+      </c>
+      <c r="N51" s="24">
+        <v>12.506961783628427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>6</v>
       </c>
@@ -2492,11 +2787,17 @@
       <c r="K52" s="8">
         <v>0.3630969554536399</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="8">
         <v>0.40284530413576985</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="16">
+        <v>1.0750381554042148</v>
+      </c>
+      <c r="N52" s="25">
+        <v>8.9173017711210362E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>7</v>
       </c>
@@ -2530,11 +2831,17 @@
       <c r="K53" s="8">
         <v>12.962891219434564</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="8">
         <v>18.753343960981393</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="16">
+        <v>16.456090066783425</v>
+      </c>
+      <c r="N53" s="25">
+        <v>12.417788765917217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="12" t="s">
         <v>12</v>
       </c>
@@ -2568,11 +2875,17 @@
       <c r="K54" s="7">
         <v>252.09366580171459</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="7">
         <v>287.38458836841261</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="15">
+        <v>333.86177066449892</v>
+      </c>
+      <c r="N54" s="24">
+        <v>374.22704783915157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>13</v>
       </c>
@@ -2606,49 +2919,68 @@
       <c r="K55" s="9">
         <v>269.69708213980158</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="9">
         <v>304.32051123651667</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="17" t="s">
+      <c r="M55" s="17">
+        <v>348.83839286509107</v>
+      </c>
+      <c r="N55" s="26">
+        <v>395.63277491366023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="18" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75">
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75">
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75">
+      <c r="N60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
